--- a/data/trans_camb/P15A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P15A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 5,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 2,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 6,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 7,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; -0,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 1,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 4,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 0,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 2,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-82,01; 615,83</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-89,65; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,64; 306,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 96,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,88; 261,34</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; -0,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 1,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,81; 4,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,71; 53,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 76,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,56; 211,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,13; 218,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,94; 148,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,39; 54,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,17; 80,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,49; 69,09</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 0,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 1,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,81; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; 17,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 5,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,64; 50,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,24; 34,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,08; 72,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,25; 6,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,07; 5,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,26; 9,4</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; -0,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; -0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 1,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; -0,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 0,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 0,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; -0,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; -0,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,29; 35,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,96; -1,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,41; 5,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 44,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,83; -25,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,66; 28,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,39; 18,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,23; -29,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,17; -7,95</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; -0,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 1,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,06</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,0%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; 65,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,92; 35,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,08; -3,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,71; 92,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,88; 148,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,63; 68,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,17; 48,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,49; 55,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,09; 3,2</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; -0,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; -0,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; -0,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 0,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; -0,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; -0,25</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,11%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,55%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,01; -0,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,86; -7,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,56; -16,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,17; 36,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,57; 19,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,62; 26,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,88; 5,63</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,59; -5,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,24; -8,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-0,02</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,52</t>
+          <t>-3,24; 0,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,52</t>
+          <t>-2,73; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,72</t>
+          <t>-2,55; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,21</t>
+          <t>-0,51; 3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,75</t>
+          <t>-1,03; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,88</t>
+          <t>-1,12; 1,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,71</t>
+          <t>-1,21; 1,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,42</t>
+          <t>-1,46; 1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,73</t>
+          <t>-1,35; 1,22</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-36,46%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,35%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-61,25%</t>
+          <t>-6,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-2,54%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,01; 615,83</t>
+          <t>-73,34; 14,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,8; 38,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,65; —</t>
+          <t>-59,77; 88,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-18,02; 205,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,48; 157,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,0; —</t>
+          <t>-33,06; 122,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 306,17</t>
+          <t>-36,09; 57,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,36</t>
+          <t>-41,37; 52,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,88; 261,34</t>
+          <t>-36,87; 56,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -0,03</t>
+          <t>-3,53; 0,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,09</t>
+          <t>-3,01; 0,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,66</t>
+          <t>-4,38; -0,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,1</t>
+          <t>-1,96; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,43</t>
+          <t>-2,4; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,2</t>
+          <t>-1,73; 1,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,14</t>
+          <t>-2,21; 0,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,57</t>
+          <t>-2,16; 0,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,5</t>
+          <t>-2,7; -0,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-52,15%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,53%</t>
+          <t>-27,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-49,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>-26,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>-27,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-33,09%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 4,7</t>
+          <t>-62,81; 8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,71; 53,79</t>
+          <t>-54,44; 17,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 76,4</t>
+          <t>-77,5; -12,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 211,68</t>
+          <t>-52,64; 50,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 218,53</t>
+          <t>-60,24; 34,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 148,24</t>
+          <t>-43,94; 70,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 54,08</t>
+          <t>-48,25; 6,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 80,22</t>
+          <t>-49,07; 5,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 69,09</t>
+          <t>-60,43; -0,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,26</t>
+          <t>-2,86; 0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,59</t>
+          <t>-3,53; -0,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,08</t>
+          <t>-3,6; -0,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,09</t>
+          <t>-2,51; 1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,67</t>
+          <t>-3,82; -0,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,57</t>
+          <t>-3,57; 0,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,19</t>
+          <t>-2,2; 0,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,12</t>
+          <t>-3,23; -0,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,32</t>
+          <t>-2,95; -0,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-25,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>-53,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>-51,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>-22,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,14%</t>
+          <t>-61,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-37,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,7%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,07%</t>
+          <t>-58,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>-43,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 8,98</t>
+          <t>-63,29; 35,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 17,3</t>
+          <t>-77,96; -1,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 5,71</t>
+          <t>-75,87; 1,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 50,67</t>
+          <t>-58,68; 44,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 34,65</t>
+          <t>-82,83; -25,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 72,35</t>
+          <t>-70,14; 10,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 6,35</t>
+          <t>-51,39; 18,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 5,51</t>
+          <t>-74,23; -29,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 9,4</t>
+          <t>-68,04; -12,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,87</t>
+          <t>-1,7; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,21</t>
+          <t>-2,34; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,06</t>
+          <t>-3,27; -0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,04</t>
+          <t>-1,21; 1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,73</t>
+          <t>-0,39; 2,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,68</t>
+          <t>-1,36; 1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,47</t>
+          <t>-1,03; 1,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,97</t>
+          <t>-0,86; 1,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,25</t>
+          <t>-1,86; 0,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-25,83%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,98%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>-47,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,5%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-61,89%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-58,01%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,75%</t>
+          <t>-28,89%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 35,28</t>
+          <t>-39,49; 65,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,96; -1,46</t>
+          <t>-51,92; 35,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,41; 5,43</t>
+          <t>-71,82; -4,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 44,9</t>
+          <t>-42,71; 92,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -25,49</t>
+          <t>-17,88; 148,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,66; 28,35</t>
+          <t>-44,17; 67,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 18,88</t>
+          <t>-31,17; 48,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,23; -29,57</t>
+          <t>-25,49; 55,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,17; -7,95</t>
+          <t>-53,42; 0,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,8</t>
+          <t>-1,75; -0,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,03</t>
+          <t>-2,05; -0,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,19</t>
+          <t>-2,56; -0,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,43</t>
+          <t>-0,78; 0,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,55</t>
+          <t>-1,11; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,16</t>
+          <t>-1,07; 0,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,12</t>
+          <t>-1,04; 0,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,34</t>
+          <t>-1,31; -0,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,06</t>
+          <t>-1,55; -0,36</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>-30,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-47,06%</t>
+          <t>-43,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>-21,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,0%</t>
+          <t>-29,15%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 65,98</t>
+          <t>-41,01; -0,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 35,13</t>
+          <t>-47,86; -7,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,08; -3,97</t>
+          <t>-60,18; -20,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 92,99</t>
+          <t>-24,17; 36,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 148,89</t>
+          <t>-34,57; 19,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 68,33</t>
+          <t>-32,79; 21,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 48,53</t>
+          <t>-28,88; 5,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 55,33</t>
+          <t>-36,59; -5,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 3,2</t>
+          <t>-43,33; -12,57</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; -0,02</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; -0,26</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; -0,57</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 0,85</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 0,46</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 0,6</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 0,16</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; -0,18</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; -0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-23,62%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-30,11%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-39,53%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-11,06%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-5,45%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-21,89%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-24,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-41,01; -0,92</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-47,86; -7,2</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-55,56; -16,72</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-24,17; 36,3</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-34,57; 19,82</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-28,62; 26,33</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-28,88; 5,63</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-36,59; -5,73</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-38,24; -8,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P15A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,27</t>
+          <t>-3,0; 0,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,91</t>
+          <t>-2,8; 0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,87</t>
+          <t>-2,51; 1,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,09</t>
+          <t>-0,77; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,37</t>
+          <t>-1,14; 2,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,84</t>
+          <t>-0,98; 1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,27</t>
+          <t>-1,28; 1,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,12</t>
+          <t>-1,52; 0,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,22</t>
+          <t>-1,25; 1,07</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 14,6</t>
+          <t>-68,54; 19,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 38,0</t>
+          <t>-64,4; 33,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 88,19</t>
+          <t>-60,22; 86,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 205,31</t>
+          <t>-24,81; 214,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 157,56</t>
+          <t>-39,59; 150,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 122,32</t>
+          <t>-31,89; 124,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 57,69</t>
+          <t>-37,35; 60,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 52,1</t>
+          <t>-43,56; 41,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 56,03</t>
+          <t>-36,31; 49,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,26</t>
+          <t>-3,38; 0,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,59</t>
+          <t>-3,04; 0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,45</t>
+          <t>-4,23; -0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,09</t>
+          <t>-2,03; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,67</t>
+          <t>-2,4; 0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,53</t>
+          <t>-1,7; 1,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,19</t>
+          <t>-2,16; 0,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,12</t>
+          <t>-2,2; 0,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,03</t>
+          <t>-2,62; -0,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 8,98</t>
+          <t>-61,73; 6,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 17,3</t>
+          <t>-55,66; 10,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,5; -12,66</t>
+          <t>-77,75; -14,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 50,67</t>
+          <t>-50,72; 51,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 34,65</t>
+          <t>-60,41; 36,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 70,56</t>
+          <t>-44,75; 73,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 6,35</t>
+          <t>-47,91; 5,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 5,51</t>
+          <t>-50,14; 3,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,43; -0,56</t>
+          <t>-58,73; -2,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,87</t>
+          <t>-2,98; 0,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,21</t>
+          <t>-3,86; -0,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,07</t>
+          <t>-3,66; -0,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,04</t>
+          <t>-2,74; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,73</t>
+          <t>-4,11; -0,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,37</t>
+          <t>-3,4; 0,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,47</t>
+          <t>-2,2; 0,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,97</t>
+          <t>-3,13; -0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,42</t>
+          <t>-2,84; -0,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 35,28</t>
+          <t>-63,96; 34,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,96; -1,46</t>
+          <t>-78,78; -6,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 1,91</t>
+          <t>-79,12; -5,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 44,9</t>
+          <t>-58,89; 40,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -25,49</t>
+          <t>-83,43; -25,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 10,05</t>
+          <t>-71,99; 12,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 18,88</t>
+          <t>-51,7; 16,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,23; -29,57</t>
+          <t>-75,57; -28,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,04; -12,47</t>
+          <t>-67,24; -13,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,8</t>
+          <t>-1,61; 1,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,03</t>
+          <t>-2,25; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,25</t>
+          <t>-3,25; -0,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,43</t>
+          <t>-1,4; 1,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,55</t>
+          <t>-0,36; 2,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,12</t>
+          <t>-1,32; 1,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,12</t>
+          <t>-1,02; 1,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,34</t>
+          <t>-0,91; 1,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,02</t>
+          <t>-1,76; 0,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 65,98</t>
+          <t>-38,5; 61,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 35,13</t>
+          <t>-50,14; 33,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -4,95</t>
+          <t>-71,5; -6,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 92,99</t>
+          <t>-48,78; 79,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 148,89</t>
+          <t>-12,88; 156,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 67,34</t>
+          <t>-43,32; 73,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 48,53</t>
+          <t>-30,38; 47,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 55,33</t>
+          <t>-27,65; 52,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 0,56</t>
+          <t>-49,52; 4,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,02</t>
+          <t>-1,76; -0,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,26</t>
+          <t>-2,04; -0,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -0,7</t>
+          <t>-2,58; -0,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,85</t>
+          <t>-0,89; 0,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,46</t>
+          <t>-1,07; 0,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,51</t>
+          <t>-1,0; 0,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,16</t>
+          <t>-1,12; 0,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; -0,18</t>
+          <t>-1,41; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; -0,36</t>
+          <t>-1,53; -0,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -0,92</t>
+          <t>-41,63; -0,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -7,2</t>
+          <t>-47,55; -8,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,18; -20,63</t>
+          <t>-60,25; -20,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 36,3</t>
+          <t>-27,75; 33,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 19,82</t>
+          <t>-33,49; 22,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 21,97</t>
+          <t>-31,93; 28,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 5,63</t>
+          <t>-30,55; 5,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -5,73</t>
+          <t>-38,33; -5,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -12,57</t>
+          <t>-43,6; -11,16</t>
         </is>
       </c>
     </row>
